--- a/timetabling_GA/results/PS_CT001_HK3/LichHocKy_PS_CT001_HK3.xlsx
+++ b/timetabling_GA/results/PS_CT001_HK3/LichHocKy_PS_CT001_HK3.xlsx
@@ -85,14 +85,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BDD7EE"/>
-        <bgColor rgb="00BDD7EE"/>
+        <fgColor rgb="00FFCCCB"/>
+        <bgColor rgb="00FFCCCB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFCCCB"/>
-        <bgColor rgb="00FFCCCB"/>
+        <fgColor rgb="00BDD7EE"/>
+        <bgColor rgb="00BDD7EE"/>
       </patternFill>
     </fill>
   </fills>
@@ -626,7 +626,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -641,15 +641,15 @@
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
         <is>
           <t>MH004
-(Theory)
-Room: LT3
+(Practice)
+Room: TH1
 Lecturer: GV002</t>
         </is>
       </c>
-      <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9"/>
@@ -670,7 +670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -780,7 +780,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -792,12 +792,12 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT2
-Lecturer: GV001</t>
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr"/>
@@ -806,36 +806,7 @@
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT3
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+    <row r="9"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -853,7 +824,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -963,7 +934,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -975,12 +946,12 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT2
-Lecturer: GV001</t>
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr"/>
@@ -989,36 +960,7 @@
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT3
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+    <row r="9"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1036,7 +978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1146,7 +1088,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1158,12 +1100,12 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT2
-Lecturer: GV001</t>
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr"/>
@@ -1172,36 +1114,7 @@
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT3
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+    <row r="9"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1219,7 +1132,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1329,7 +1242,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1341,12 +1254,12 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT2
-Lecturer: GV001</t>
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr"/>
@@ -1355,36 +1268,7 @@
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT3
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+    <row r="9"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1402,7 +1286,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1396,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1524,12 +1408,12 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT2
-Lecturer: GV001</t>
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr"/>
@@ -1538,36 +1422,7 @@
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT3
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+    <row r="9"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1585,7 +1440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1695,7 +1550,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1707,12 +1562,12 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT2
-Lecturer: GV001</t>
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr"/>
@@ -1721,36 +1576,7 @@
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT3
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+    <row r="9"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1878,7 +1704,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1890,12 +1716,12 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT2
-Lecturer: GV001</t>
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr"/>
@@ -1922,7 +1748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2032,7 +1858,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2044,12 +1870,12 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT2
-Lecturer: GV001</t>
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr"/>
@@ -2061,7 +1887,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -2074,7 +1900,10 @@
       </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
         <is>
           <t>MH004
 (Practice)
@@ -2082,19 +1911,38 @@
 Lecturer: GV002</t>
         </is>
       </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT3
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
-    <row r="10"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2112,7 +1960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2222,7 +2070,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2234,12 +2082,12 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT2
-Lecturer: GV001</t>
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr"/>
@@ -2251,7 +2099,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -2264,7 +2112,10 @@
       </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
         <is>
           <t>MH004
 (Practice)
@@ -2272,19 +2123,38 @@
 Lecturer: GV002</t>
         </is>
       </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT3
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
-    <row r="10"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2302,7 +2172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2412,7 +2282,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2424,12 +2294,12 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT2
-Lecturer: GV001</t>
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr"/>
@@ -2441,7 +2311,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -2454,7 +2324,10 @@
       </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
         <is>
           <t>MH004
 (Practice)
@@ -2462,19 +2335,38 @@
 Lecturer: GV002</t>
         </is>
       </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT3
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
-    <row r="10"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2492,7 +2384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2602,7 +2494,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2614,12 +2506,12 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT2
-Lecturer: GV001</t>
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr"/>
@@ -2631,7 +2523,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -2644,7 +2536,10 @@
       </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
         <is>
           <t>MH004
 (Practice)
@@ -2652,19 +2547,38 @@
 Lecturer: GV002</t>
         </is>
       </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT3
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
-    <row r="10"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2792,7 +2706,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2804,12 +2718,12 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT2
-Lecturer: GV001</t>
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr"/>
@@ -2821,7 +2735,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -2832,25 +2746,18 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>MH004
-(Practice)
-Room: TH1
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT3
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
@@ -2982,7 +2889,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2994,12 +2901,12 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT2
-Lecturer: GV001</t>
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr"/>
@@ -3011,7 +2918,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -3022,18 +2929,18 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT3
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
@@ -3165,7 +3072,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -3177,12 +3084,12 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT2
-Lecturer: GV001</t>
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr"/>
@@ -3194,7 +3101,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -3205,18 +3112,18 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT3
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
@@ -3348,7 +3255,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -3360,12 +3267,12 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT2
-Lecturer: GV001</t>
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr"/>
@@ -3377,7 +3284,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -3388,18 +3295,18 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT3
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>

--- a/timetabling_GA/results/PS_CT001_HK3/LichHocKy_PS_CT001_HK3.xlsx
+++ b/timetabling_GA/results/PS_CT001_HK3/LichHocKy_PS_CT001_HK3.xlsx
@@ -22,7 +22,6 @@
     <sheet name="Week_13" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="Week_14" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="Week_15" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Week_16" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -85,18 +84,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00BDD7EE"/>
+        <bgColor rgb="00BDD7EE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FFCCCB"/>
         <bgColor rgb="00FFCCCB"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BDD7EE"/>
-        <bgColor rgb="00BDD7EE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -118,11 +117,44 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -151,6 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -516,7 +549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -626,39 +659,344 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Practice)
+Room: TH2
+Lecturer: GV005</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="8" t="inlineStr">
         <is>
-          <t>MH004
+          <t>MH012
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="10" t="n"/>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="10" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Practice)
+Room: TH2
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>MH012
 (Practice)
 Room: TH1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H14" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Practice)
+Room: TH3
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I14" s="7" t="inlineStr"/>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+      <c r="I15" s="7" t="inlineStr"/>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H16" s="7" t="inlineStr"/>
+      <c r="I16" s="7" t="inlineStr"/>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="10" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT1
 Lecturer: GV002</t>
         </is>
       </c>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -670,7 +1008,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -780,37 +1118,193 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT2
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="10" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
   </mergeCells>
@@ -824,7 +1318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -934,37 +1428,193 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT2
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="10" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
   </mergeCells>
@@ -978,7 +1628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,37 +1738,193 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT2
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="10" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
   </mergeCells>
@@ -1132,7 +1938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1242,37 +2048,193 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT2
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="10" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
   </mergeCells>
@@ -1286,7 +2248,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1396,37 +2358,193 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT2
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="10" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
   </mergeCells>
@@ -1440,7 +2558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1550,37 +2668,193 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT2
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="10" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
   </mergeCells>
@@ -1588,13 +2862,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1638,7 +2912,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 16 TIMETABLE (06/07/2026 - 12/07/2026)</t>
+          <t>WEEK 2 TIMETABLE (30/03/2026 - 05/04/2026)</t>
         </is>
       </c>
     </row>
@@ -1661,94 +2935,425 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-06/07</t>
+30/03</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-07/07</t>
+31/03</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-08/07</t>
+01/04</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-09/07</t>
+02/04</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-10/07</t>
+03/04</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-11/07</t>
+04/04</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-12/07</t>
+05/04</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Practice)
+Room: TH2
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="10" t="n"/>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="10" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Practice)
+Room: TH2
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
           <t>S1</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>MH004
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="10" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="7" t="inlineStr"/>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+      <c r="I14" s="7" t="inlineStr"/>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Practice)
+Room: TH1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="H15" s="7" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>MH011
 (Theory)
 Room: LT2
 Lecturer: GV002</t>
         </is>
       </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Practice)
+Room: TH3
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I16" s="7" t="inlineStr"/>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H17" s="7" t="inlineStr"/>
+      <c r="I17" s="7" t="inlineStr"/>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1792,7 +3397,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 2 TIMETABLE (30/03/2026 - 05/04/2026)</t>
+          <t>WEEK 3 TIMETABLE (06/04/2026 - 12/04/2026)</t>
         </is>
       </c>
     </row>
@@ -1815,152 +3420,366 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-30/03</t>
+06/04</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-31/03</t>
+07/04</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-01/04</t>
+08/04</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-02/04</t>
+09/04</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-03/04</t>
+10/04</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-04/04</t>
+11/04</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-05/04</t>
+12/04</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Practice)
+Room: TH2
+Lecturer: GV005</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Practice)
-Room: TH1
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH003
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
-    <row r="11"/>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="10" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Practice)
+Room: TH2
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Practice)
+Room: TH1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Practice)
+Room: TH3
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I14" s="7" t="inlineStr"/>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H15" s="7" t="inlineStr"/>
+      <c r="I15" s="7" t="inlineStr"/>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2004,7 +3823,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 3 TIMETABLE (06/04/2026 - 12/04/2026)</t>
+          <t>WEEK 4 TIMETABLE (13/04/2026 - 19/04/2026)</t>
         </is>
       </c>
     </row>
@@ -2027,123 +3846,133 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-06/04</t>
+13/04</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-07/04</t>
+14/04</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-08/04</t>
+15/04</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-09/04</t>
+16/04</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-10/04</t>
+17/04</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-11/04</t>
+18/04</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-12/04</t>
+19/04</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Practice)
+Room: TH2
+Lecturer: GV005</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Practice)
-Room: TH1
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>MH006
 (Practice)
-Room: TH2
+Room: TH3
 Lecturer: GV001</t>
         </is>
       </c>
@@ -2154,25 +3983,229 @@
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
-    <row r="11"/>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="10" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Practice)
+Room: TH2
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H14" s="7" t="inlineStr"/>
+      <c r="I14" s="7" t="inlineStr"/>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H15" s="7" t="inlineStr"/>
+      <c r="I15" s="7" t="inlineStr"/>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2216,7 +4249,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 4 TIMETABLE (13/04/2026 - 19/04/2026)</t>
+          <t>WEEK 5 TIMETABLE (20/04/2026 - 26/04/2026)</t>
         </is>
       </c>
     </row>
@@ -2239,152 +4272,378 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-13/04</t>
+20/04</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-14/04</t>
+21/04</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-15/04</t>
+22/04</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-16/04</t>
+23/04</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-17/04</t>
+24/04</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-18/04</t>
+25/04</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-19/04</t>
+26/04</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT2
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Practice)
+Room: TH2
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT3
 Lecturer: GV002</t>
         </is>
       </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Practice)
-Room: TH1
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>MH006
 (Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
+Room: TH3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
-    <row r="11"/>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="10" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Practice)
+Room: TH2
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+      <c r="I14" s="7" t="inlineStr"/>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+      <c r="I15" s="7" t="inlineStr"/>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H16" s="7" t="inlineStr"/>
+      <c r="I16" s="7" t="inlineStr"/>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="10" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2428,7 +4687,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 5 TIMETABLE (20/04/2026 - 26/04/2026)</t>
+          <t>WEEK 6 TIMETABLE (27/04/2026 - 03/05/2026)</t>
         </is>
       </c>
     </row>
@@ -2451,123 +4710,119 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-20/04</t>
+27/04</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-21/04</t>
+28/04</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-22/04</t>
+29/04</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-23/04</t>
+30/04</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-24/04</t>
+01/05</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-25/04</t>
+02/05</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-26/04</t>
+03/05</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT2
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Practice)
-Room: TH1
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>MH006
 (Practice)
-Room: TH2
+Room: TH3
 Lecturer: GV001</t>
         </is>
       </c>
@@ -2578,25 +4833,196 @@
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
-    <row r="11"/>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="7" t="inlineStr"/>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H14" s="7" t="inlineStr"/>
+      <c r="I14" s="7" t="inlineStr"/>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2640,7 +5066,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 6 TIMETABLE (27/04/2026 - 03/05/2026)</t>
+          <t>WEEK 7 TIMETABLE (04/05/2026 - 10/05/2026)</t>
         </is>
       </c>
     </row>
@@ -2663,92 +5089,88 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-27/04</t>
+04/05</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-28/04</t>
+05/05</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-29/04</t>
+06/05</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-30/04</t>
+07/05</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-01/05</t>
+08/05</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-02/05</t>
+09/05</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-03/05</t>
+10/05</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT2
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>MH006
 (Practice)
 Room: TH2
 Lecturer: GV001</t>
@@ -2761,25 +5183,251 @@
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
-    <row r="10"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="10" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H14" s="7" t="inlineStr"/>
+      <c r="I14" s="7" t="inlineStr"/>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H15" s="7" t="inlineStr"/>
+      <c r="I15" s="7" t="inlineStr"/>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2823,7 +5471,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 7 TIMETABLE (04/05/2026 - 10/05/2026)</t>
+          <t>WEEK 8 TIMETABLE (11/05/2026 - 17/05/2026)</t>
         </is>
       </c>
     </row>
@@ -2846,92 +5494,88 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-04/05</t>
+11/05</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-05/05</t>
+12/05</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-06/05</t>
+13/05</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-07/05</t>
+14/05</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-08/05</t>
+15/05</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-09/05</t>
+16/05</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-10/05</t>
+17/05</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT2
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>MH006
 (Practice)
 Room: TH2
 Lecturer: GV001</t>
@@ -2944,25 +5588,211 @@
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
-    <row r="10"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="7" t="inlineStr"/>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H14" s="7" t="inlineStr"/>
+      <c r="I14" s="7" t="inlineStr"/>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3006,7 +5836,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 8 TIMETABLE (11/05/2026 - 17/05/2026)</t>
+          <t>WEEK 9 TIMETABLE (18/05/2026 - 24/05/2026)</t>
         </is>
       </c>
     </row>
@@ -3029,292 +5859,236 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-11/05</t>
+18/05</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-12/05</t>
+19/05</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-13/05</t>
+20/05</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-14/05</t>
+21/05</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-15/05</t>
+22/05</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-16/05</t>
+23/05</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-17/05</t>
+24/05</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT2
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>MH003
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
-    <row r="10"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="10" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A2:J2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="25" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>WEEK 9 TIMETABLE (18/05/2026 - 24/05/2026)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="40" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>Monday
-18/05</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>Tuesday
-19/05</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>Wednesday
-20/05</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>Thursday
-21/05</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>Friday
-22/05</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>Saturday
-23/05</t>
-        </is>
-      </c>
-      <c r="J7" s="5" t="inlineStr">
-        <is>
-          <t>Sunday
-24/05</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>MH003
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
   </mergeCells>
